--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,6 +719,164 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>45272</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>230</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>opis</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Rozrywka</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Miesięczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>300</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Umowa o pracę</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Miesięczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Świadczenia socjalne</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Miesięczny</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>400</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Świadczenia socjalne</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.10.2025</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Umowa o pracę</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Miesięczny</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -877,6 +877,70 @@
         </is>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>100</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Umowa o pracę</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Rozrywka</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +941,70 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>100</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Umowa o pracę</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>50</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Jedzenie</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,6 +1005,38 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>47a74fbc-d4a7-4bce-ab6b-851c0420592d</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>28-04-2025</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>100</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Umowa o pracę</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Jednorazowy</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
